--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ccl5-Sdc4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ccl5-Sdc4.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9331043333333334</v>
+        <v>2.204947</v>
       </c>
       <c r="H2">
-        <v>2.799313</v>
+        <v>6.614841</v>
       </c>
       <c r="I2">
-        <v>0.0200380644147157</v>
+        <v>0.03384377946268709</v>
       </c>
       <c r="J2">
-        <v>0.0201696361339749</v>
+        <v>0.03400382310856976</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.118096666666667</v>
+        <v>1.378421333333333</v>
       </c>
       <c r="N2">
-        <v>6.35429</v>
+        <v>4.135264</v>
       </c>
       <c r="O2">
-        <v>0.01939632514349435</v>
+        <v>0.01656231489052403</v>
       </c>
       <c r="P2">
-        <v>0.02251552750188864</v>
+        <v>0.01794267551419991</v>
       </c>
       <c r="Q2">
-        <v>1.976405178085556</v>
+        <v>3.039345983669334</v>
       </c>
       <c r="R2">
-        <v>17.78764660277</v>
+        <v>27.354113853024</v>
       </c>
       <c r="S2">
-        <v>0.0003886648126341096</v>
+        <v>0.0005605313325464737</v>
       </c>
       <c r="T2">
-        <v>0.0004541299970775988</v>
+        <v>0.0006101195642793198</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9331043333333334</v>
+        <v>2.204947</v>
       </c>
       <c r="H3">
-        <v>2.799313</v>
+        <v>6.614841</v>
       </c>
       <c r="I3">
-        <v>0.0200380644147157</v>
+        <v>0.03384377946268709</v>
       </c>
       <c r="J3">
-        <v>0.0201696361339749</v>
+        <v>0.03400382310856976</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>54.20365200000001</v>
       </c>
       <c r="O3">
-        <v>0.1654554101491777</v>
+        <v>0.2170932623988173</v>
       </c>
       <c r="P3">
-        <v>0.1920629712066653</v>
+        <v>0.2351865659654651</v>
       </c>
       <c r="Q3">
-        <v>16.859220854564</v>
+        <v>39.83872662214801</v>
       </c>
       <c r="R3">
-        <v>151.732987691076</v>
+        <v>358.5485395993321</v>
       </c>
       <c r="S3">
-        <v>0.003315406166332429</v>
+        <v>0.00734725649546083</v>
       </c>
       <c r="T3">
-        <v>0.003873840244048537</v>
+        <v>0.00799724238660165</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.9331043333333334</v>
+        <v>2.204947</v>
       </c>
       <c r="H4">
-        <v>2.799313</v>
+        <v>6.614841</v>
       </c>
       <c r="I4">
-        <v>0.0200380644147157</v>
+        <v>0.03384377946268709</v>
       </c>
       <c r="J4">
-        <v>0.0201696361339749</v>
+        <v>0.03400382310856976</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.713181</v>
+        <v>17.58286933333333</v>
       </c>
       <c r="N4">
-        <v>65.139543</v>
+        <v>52.748608</v>
       </c>
       <c r="O4">
-        <v>0.198836967737801</v>
+        <v>0.2112656061941426</v>
       </c>
       <c r="P4">
-        <v>0.2308127535691568</v>
+        <v>0.22887321273073</v>
       </c>
       <c r="Q4">
-        <v>20.260663281551</v>
+        <v>38.76929498792533</v>
       </c>
       <c r="R4">
-        <v>182.345969533959</v>
+        <v>348.923654891328</v>
       </c>
       <c r="S4">
-        <v>0.003984307967556805</v>
+        <v>0.007150026584085461</v>
       </c>
       <c r="T4">
-        <v>0.00465540925457071</v>
+        <v>0.0077825642399858</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.9331043333333334</v>
+        <v>2.204947</v>
       </c>
       <c r="H5">
-        <v>2.799313</v>
+        <v>6.614841</v>
       </c>
       <c r="I5">
-        <v>0.0200380644147157</v>
+        <v>0.03384377946268709</v>
       </c>
       <c r="J5">
-        <v>0.0201696361339749</v>
+        <v>0.03400382310856976</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>45.38465100000001</v>
+        <v>19.2082395</v>
       </c>
       <c r="N5">
-        <v>90.76930200000001</v>
+        <v>38.416479</v>
       </c>
       <c r="O5">
-        <v>0.4156068328578093</v>
+        <v>0.2307951156866419</v>
       </c>
       <c r="P5">
-        <v>0.3216281780510861</v>
+        <v>0.1666869194070983</v>
       </c>
       <c r="Q5">
-        <v>42.34861451492101</v>
+        <v>42.35315006080651</v>
       </c>
       <c r="R5">
-        <v>254.091687089526</v>
+        <v>254.118900364839</v>
       </c>
       <c r="S5">
-        <v>0.008327956488000764</v>
+        <v>0.007810978996364062</v>
       </c>
       <c r="T5">
-        <v>0.006487123321723699</v>
+        <v>0.005667992522031396</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9331043333333334</v>
+        <v>2.204947</v>
       </c>
       <c r="H6">
-        <v>2.799313</v>
+        <v>6.614841</v>
       </c>
       <c r="I6">
-        <v>0.0200380644147157</v>
+        <v>0.03384377946268709</v>
       </c>
       <c r="J6">
-        <v>0.0201696361339749</v>
+        <v>0.03400382310856976</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>21.91711333333333</v>
+        <v>26.988955</v>
       </c>
       <c r="N6">
-        <v>65.75134</v>
+        <v>80.966865</v>
       </c>
       <c r="O6">
-        <v>0.2007044641117176</v>
+        <v>0.3242837008298742</v>
       </c>
       <c r="P6">
-        <v>0.2329805696712033</v>
+        <v>0.3513106263825066</v>
       </c>
       <c r="Q6">
-        <v>20.45095342549111</v>
+        <v>59.50921536038501</v>
       </c>
       <c r="R6">
-        <v>184.05858082942</v>
+        <v>535.582938243465</v>
       </c>
       <c r="S6">
-        <v>0.004021728980191593</v>
+        <v>0.01097498605423026</v>
       </c>
       <c r="T6">
-        <v>0.004699133316554359</v>
+        <v>0.01194590439567159</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.466228999999999</v>
+        <v>7.466229000000001</v>
       </c>
       <c r="H7">
         <v>22.398687</v>
       </c>
       <c r="I7">
-        <v>0.1603344581013467</v>
+        <v>0.1145993113185572</v>
       </c>
       <c r="J7">
-        <v>0.1613872284624098</v>
+        <v>0.1151412393150827</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.118096666666667</v>
+        <v>1.378421333333333</v>
       </c>
       <c r="N7">
-        <v>6.35429</v>
+        <v>4.135264</v>
       </c>
       <c r="O7">
-        <v>0.01939632514349435</v>
+        <v>0.01656231489052403</v>
       </c>
       <c r="P7">
-        <v>0.02251552750188864</v>
+        <v>0.01794267551419991</v>
       </c>
       <c r="Q7">
-        <v>15.81419475747</v>
+        <v>10.291609333152</v>
       </c>
       <c r="R7">
-        <v>142.32775281723</v>
+        <v>92.62448399836802</v>
       </c>
       <c r="S7">
-        <v>0.003109899281039693</v>
+        <v>0.001898029880295139</v>
       </c>
       <c r="T7">
-        <v>0.003633718580898973</v>
+        <v>0.002065941895333367</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.466228999999999</v>
+        <v>7.466229000000001</v>
       </c>
       <c r="H8">
         <v>22.398687</v>
       </c>
       <c r="I8">
-        <v>0.1603344581013467</v>
+        <v>0.1145993113185572</v>
       </c>
       <c r="J8">
-        <v>0.1613872284624098</v>
+        <v>0.1151412393150827</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>54.20365200000001</v>
       </c>
       <c r="O8">
-        <v>0.1654554101491777</v>
+        <v>0.2170932623988173</v>
       </c>
       <c r="P8">
-        <v>0.1920629712066653</v>
+        <v>0.2351865659654651</v>
       </c>
       <c r="Q8">
         <v>134.898959489436</v>
@@ -948,10 +948,10 @@
         <v>1214.090635404924</v>
       </c>
       <c r="S8">
-        <v>0.02652820352620446</v>
+        <v>0.02487873836280329</v>
       </c>
       <c r="T8">
-        <v>0.03099651061329933</v>
+        <v>0.02707967267552211</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.466228999999999</v>
+        <v>7.466229000000001</v>
       </c>
       <c r="H9">
         <v>22.398687</v>
       </c>
       <c r="I9">
-        <v>0.1603344581013467</v>
+        <v>0.1145993113185572</v>
       </c>
       <c r="J9">
-        <v>0.1613872284624098</v>
+        <v>0.1151412393150827</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>21.713181</v>
+        <v>17.58286933333333</v>
       </c>
       <c r="N9">
-        <v>65.139543</v>
+        <v>52.748608</v>
       </c>
       <c r="O9">
-        <v>0.198836967737801</v>
+        <v>0.2112656061941426</v>
       </c>
       <c r="P9">
-        <v>0.2308127535691568</v>
+        <v>0.22887321273073</v>
       </c>
       <c r="Q9">
-        <v>162.115581664449</v>
+        <v>131.277728919744</v>
       </c>
       <c r="R9">
-        <v>1459.040234980041</v>
+        <v>1181.499560277696</v>
       </c>
       <c r="S9">
-        <v>0.03188041747275528</v>
+        <v>0.02421089297514625</v>
       </c>
       <c r="T9">
-        <v>0.03725023059230342</v>
+        <v>0.02635274535984082</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.466228999999999</v>
+        <v>7.466229000000001</v>
       </c>
       <c r="H10">
         <v>22.398687</v>
       </c>
       <c r="I10">
-        <v>0.1603344581013467</v>
+        <v>0.1145993113185572</v>
       </c>
       <c r="J10">
-        <v>0.1613872284624098</v>
+        <v>0.1151412393150827</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>45.38465100000001</v>
+        <v>19.2082395</v>
       </c>
       <c r="N10">
-        <v>90.76930200000001</v>
+        <v>38.416479</v>
       </c>
       <c r="O10">
-        <v>0.4156068328578093</v>
+        <v>0.2307951156866419</v>
       </c>
       <c r="P10">
-        <v>0.3216281780510861</v>
+        <v>0.1666869194070983</v>
       </c>
       <c r="Q10">
-        <v>338.852197451079</v>
+        <v>143.4131147938455</v>
       </c>
       <c r="R10">
-        <v>2033.113184706474</v>
+        <v>860.4786887630731</v>
       </c>
       <c r="S10">
-        <v>0.06663609632947382</v>
+        <v>0.0264489613133759</v>
       </c>
       <c r="T10">
-        <v>0.05190668025107925</v>
+        <v>0.01919253847814661</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.466228999999999</v>
+        <v>7.466229000000001</v>
       </c>
       <c r="H11">
         <v>22.398687</v>
       </c>
       <c r="I11">
-        <v>0.1603344581013467</v>
+        <v>0.1145993113185572</v>
       </c>
       <c r="J11">
-        <v>0.1613872284624098</v>
+        <v>0.1151412393150827</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.91711333333333</v>
+        <v>26.988955</v>
       </c>
       <c r="N11">
-        <v>65.75134</v>
+        <v>80.966865</v>
       </c>
       <c r="O11">
-        <v>0.2007044641117176</v>
+        <v>0.3242837008298742</v>
       </c>
       <c r="P11">
-        <v>0.2329805696712033</v>
+        <v>0.3513106263825066</v>
       </c>
       <c r="Q11">
-        <v>163.63818716562</v>
+        <v>201.505718500695</v>
       </c>
       <c r="R11">
-        <v>1472.74368449058</v>
+        <v>1813.551466506255</v>
       </c>
       <c r="S11">
-        <v>0.03217984149187342</v>
+        <v>0.03716268878693662</v>
       </c>
       <c r="T11">
-        <v>0.03760008842482888</v>
+        <v>0.04045034090623981</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>29.07980133333334</v>
+        <v>31.62082666666666</v>
       </c>
       <c r="H12">
-        <v>87.23940400000001</v>
+        <v>94.86247999999999</v>
       </c>
       <c r="I12">
-        <v>0.6244777903912161</v>
+        <v>0.4853487562896166</v>
       </c>
       <c r="J12">
-        <v>0.6285781672949164</v>
+        <v>0.4876439191146448</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.118096666666667</v>
+        <v>1.378421333333333</v>
       </c>
       <c r="N12">
-        <v>6.35429</v>
+        <v>4.135264</v>
       </c>
       <c r="O12">
-        <v>0.01939632514349435</v>
+        <v>0.01656231489052403</v>
       </c>
       <c r="P12">
-        <v>0.02251552750188864</v>
+        <v>0.01794267551419991</v>
       </c>
       <c r="Q12">
-        <v>61.59383027146223</v>
+        <v>43.58682205496889</v>
       </c>
       <c r="R12">
-        <v>554.34447244316</v>
+        <v>392.28139849472</v>
       </c>
       <c r="S12">
-        <v>0.01211257426731894</v>
+        <v>0.008038498933392837</v>
       </c>
       <c r="T12">
-        <v>0.01415276901281545</v>
+        <v>0.008749636607146821</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>29.07980133333334</v>
+        <v>31.62082666666666</v>
       </c>
       <c r="H13">
-        <v>87.23940400000001</v>
+        <v>94.86247999999999</v>
       </c>
       <c r="I13">
-        <v>0.6244777903912161</v>
+        <v>0.4853487562896166</v>
       </c>
       <c r="J13">
-        <v>0.6285781672949164</v>
+        <v>0.4876439191146448</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>54.20365200000001</v>
       </c>
       <c r="O13">
-        <v>0.1654554101491777</v>
+        <v>0.2170932623988173</v>
       </c>
       <c r="P13">
-        <v>0.1920629712066653</v>
+        <v>0.2351865659654651</v>
       </c>
       <c r="Q13">
-        <v>525.4104772337122</v>
+        <v>571.32142819744</v>
       </c>
       <c r="R13">
-        <v>4728.694295103409</v>
+        <v>5141.89285377696</v>
       </c>
       <c r="S13">
-        <v>0.1033232289382309</v>
+        <v>0.1053659449041214</v>
       </c>
       <c r="T13">
-        <v>0.120726590446302</v>
+        <v>0.1146872987505144</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>29.07980133333334</v>
+        <v>31.62082666666666</v>
       </c>
       <c r="H14">
-        <v>87.23940400000001</v>
+        <v>94.86247999999999</v>
       </c>
       <c r="I14">
-        <v>0.6244777903912161</v>
+        <v>0.4853487562896166</v>
       </c>
       <c r="J14">
-        <v>0.6285781672949164</v>
+        <v>0.4876439191146448</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>21.713181</v>
+        <v>17.58286933333333</v>
       </c>
       <c r="N14">
-        <v>65.139543</v>
+        <v>52.748608</v>
       </c>
       <c r="O14">
-        <v>0.198836967737801</v>
+        <v>0.2112656061941426</v>
       </c>
       <c r="P14">
-        <v>0.2308127535691568</v>
+        <v>0.22887321273073</v>
       </c>
       <c r="Q14">
-        <v>631.4149897947082</v>
+        <v>555.9848634919821</v>
       </c>
       <c r="R14">
-        <v>5682.734908152373</v>
+        <v>5003.863771427839</v>
       </c>
       <c r="S14">
-        <v>0.1241692702609915</v>
+        <v>0.102537499213099</v>
       </c>
       <c r="T14">
-        <v>0.1450838576267938</v>
+        <v>0.111608630436373</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>29.07980133333334</v>
+        <v>31.62082666666666</v>
       </c>
       <c r="H15">
-        <v>87.23940400000001</v>
+        <v>94.86247999999999</v>
       </c>
       <c r="I15">
-        <v>0.6244777903912161</v>
+        <v>0.4853487562896166</v>
       </c>
       <c r="J15">
-        <v>0.6285781672949164</v>
+        <v>0.4876439191146448</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>45.38465100000001</v>
+        <v>19.2082395</v>
       </c>
       <c r="N15">
-        <v>90.76930200000001</v>
+        <v>38.416479</v>
       </c>
       <c r="O15">
-        <v>0.4156068328578093</v>
+        <v>0.2307951156866419</v>
       </c>
       <c r="P15">
-        <v>0.3216281780510861</v>
+        <v>0.1666869194070983</v>
       </c>
       <c r="Q15">
-        <v>1319.776634662668</v>
+        <v>607.38041180132</v>
       </c>
       <c r="R15">
-        <v>7918.65980797601</v>
+        <v>3644.28247080792</v>
       </c>
       <c r="S15">
-        <v>0.2595372366545362</v>
+        <v>0.1120161223562298</v>
       </c>
       <c r="T15">
-        <v>0.2021684507097548</v>
+        <v>0.08128386264482439</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>29.07980133333334</v>
+        <v>31.62082666666666</v>
       </c>
       <c r="H16">
-        <v>87.23940400000001</v>
+        <v>94.86247999999999</v>
       </c>
       <c r="I16">
-        <v>0.6244777903912161</v>
+        <v>0.4853487562896166</v>
       </c>
       <c r="J16">
-        <v>0.6285781672949164</v>
+        <v>0.4876439191146448</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>21.91711333333333</v>
+        <v>26.988955</v>
       </c>
       <c r="N16">
-        <v>65.75134</v>
+        <v>80.966865</v>
       </c>
       <c r="O16">
-        <v>0.2007044641117176</v>
+        <v>0.3242837008298742</v>
       </c>
       <c r="P16">
-        <v>0.2329805696712033</v>
+        <v>0.3513106263825066</v>
       </c>
       <c r="Q16">
-        <v>637.3453015334845</v>
+        <v>853.4130679694666</v>
       </c>
       <c r="R16">
-        <v>5736.107713801361</v>
+        <v>7680.717611725199</v>
       </c>
       <c r="S16">
-        <v>0.1253354802701385</v>
+        <v>0.1573906908827735</v>
       </c>
       <c r="T16">
-        <v>0.1464464994992506</v>
+        <v>0.1713144906757862</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.9112975000000001</v>
+        <v>0.9199225</v>
       </c>
       <c r="H17">
-        <v>1.822595</v>
+        <v>1.839845</v>
       </c>
       <c r="I17">
-        <v>0.01956977087517835</v>
+        <v>0.01411991046168627</v>
       </c>
       <c r="J17">
-        <v>0.01313217849150916</v>
+        <v>0.009457788014433987</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.118096666666667</v>
+        <v>1.378421333333333</v>
       </c>
       <c r="N17">
-        <v>6.35429</v>
+        <v>4.135264</v>
       </c>
       <c r="O17">
-        <v>0.01939632514349435</v>
+        <v>0.01656231489052403</v>
       </c>
       <c r="P17">
-        <v>0.02251552750188864</v>
+        <v>0.01794267551419991</v>
       </c>
       <c r="Q17">
-        <v>1.930216197091667</v>
+        <v>1.268040799013334</v>
       </c>
       <c r="R17">
-        <v>11.58129718255</v>
+        <v>7.60824479408</v>
       </c>
       <c r="S17">
-        <v>0.0003795816388786454</v>
+        <v>0.0002338584032924526</v>
       </c>
       <c r="T17">
-        <v>0.000295677925985285</v>
+        <v>0.0001696980214250781</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.9112975000000001</v>
+        <v>0.9199225</v>
       </c>
       <c r="H18">
-        <v>1.822595</v>
+        <v>1.839845</v>
       </c>
       <c r="I18">
-        <v>0.01956977087517835</v>
+        <v>0.01411991046168627</v>
       </c>
       <c r="J18">
-        <v>0.01313217849150916</v>
+        <v>0.009457788014433987</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>54.20365200000001</v>
       </c>
       <c r="O18">
-        <v>0.1654554101491777</v>
+        <v>0.2170932623988173</v>
       </c>
       <c r="P18">
-        <v>0.1920629712066653</v>
+        <v>0.2351865659654651</v>
       </c>
       <c r="Q18">
-        <v>16.46521751949</v>
+        <v>16.62105301899</v>
       </c>
       <c r="R18">
-        <v>98.79130511694002</v>
+        <v>99.72631811394001</v>
       </c>
       <c r="S18">
-        <v>0.003237924466678067</v>
+        <v>0.003065337426906662</v>
       </c>
       <c r="T18">
-        <v>0.002522205219495514</v>
+        <v>0.002224344684744064</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.9112975000000001</v>
+        <v>0.9199225</v>
       </c>
       <c r="H19">
-        <v>1.822595</v>
+        <v>1.839845</v>
       </c>
       <c r="I19">
-        <v>0.01956977087517835</v>
+        <v>0.01411991046168627</v>
       </c>
       <c r="J19">
-        <v>0.01313217849150916</v>
+        <v>0.009457788014433987</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>21.713181</v>
+        <v>17.58286933333333</v>
       </c>
       <c r="N19">
-        <v>65.139543</v>
+        <v>52.748608</v>
       </c>
       <c r="O19">
-        <v>0.198836967737801</v>
+        <v>0.2112656061941426</v>
       </c>
       <c r="P19">
-        <v>0.2308127535691568</v>
+        <v>0.22887321273073</v>
       </c>
       <c r="Q19">
-        <v>19.78716756234751</v>
+        <v>16.17487711429333</v>
       </c>
       <c r="R19">
-        <v>118.723005374085</v>
+        <v>97.04926268576</v>
       </c>
       <c r="S19">
-        <v>0.003891193900143997</v>
+        <v>0.002983051443095166</v>
       </c>
       <c r="T19">
-        <v>0.003031074277986886</v>
+        <v>0.002164634328189698</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.9112975000000001</v>
+        <v>0.9199225</v>
       </c>
       <c r="H20">
-        <v>1.822595</v>
+        <v>1.839845</v>
       </c>
       <c r="I20">
-        <v>0.01956977087517835</v>
+        <v>0.01411991046168627</v>
       </c>
       <c r="J20">
-        <v>0.01313217849150916</v>
+        <v>0.009457788014433987</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>45.38465100000001</v>
+        <v>19.2082395</v>
       </c>
       <c r="N20">
-        <v>90.76930200000001</v>
+        <v>38.416479</v>
       </c>
       <c r="O20">
-        <v>0.4156068328578093</v>
+        <v>0.2307951156866419</v>
       </c>
       <c r="P20">
-        <v>0.3216281780510861</v>
+        <v>0.1666869194070983</v>
       </c>
       <c r="Q20">
-        <v>41.35891899467251</v>
+        <v>17.67009170143875</v>
       </c>
       <c r="R20">
-        <v>165.43567597869</v>
+        <v>70.680366805755</v>
       </c>
       <c r="S20">
-        <v>0.008133330493185875</v>
+        <v>0.003258806368489908</v>
       </c>
       <c r="T20">
-        <v>0.004223678642065752</v>
+        <v>0.001576489548531379</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.9112975000000001</v>
+        <v>0.9199225</v>
       </c>
       <c r="H21">
-        <v>1.822595</v>
+        <v>1.839845</v>
       </c>
       <c r="I21">
-        <v>0.01956977087517835</v>
+        <v>0.01411991046168627</v>
       </c>
       <c r="J21">
-        <v>0.01313217849150916</v>
+        <v>0.009457788014433987</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>21.91711333333333</v>
+        <v>26.988955</v>
       </c>
       <c r="N21">
-        <v>65.75134</v>
+        <v>80.966865</v>
       </c>
       <c r="O21">
-        <v>0.2007044641117176</v>
+        <v>0.3242837008298742</v>
       </c>
       <c r="P21">
-        <v>0.2329805696712033</v>
+        <v>0.3513106263825066</v>
       </c>
       <c r="Q21">
-        <v>19.97301058788333</v>
+        <v>24.8277469559875</v>
       </c>
       <c r="R21">
-        <v>119.8380635273</v>
+        <v>148.966481735925</v>
       </c>
       <c r="S21">
-        <v>0.00392774037629177</v>
+        <v>0.004578856819902081</v>
       </c>
       <c r="T21">
-        <v>0.003059542425975728</v>
+        <v>0.003322621431543767</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>8.176158000000001</v>
+        <v>22.93880666666666</v>
       </c>
       <c r="H22">
-        <v>24.528474</v>
+        <v>68.81641999999999</v>
       </c>
       <c r="I22">
-        <v>0.1755799162175431</v>
+        <v>0.3520882424674529</v>
       </c>
       <c r="J22">
-        <v>0.1767327896171896</v>
+        <v>0.3537532304472688</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.118096666666667</v>
+        <v>1.378421333333333</v>
       </c>
       <c r="N22">
-        <v>6.35429</v>
+        <v>4.135264</v>
       </c>
       <c r="O22">
-        <v>0.01939632514349435</v>
+        <v>0.01656231489052403</v>
       </c>
       <c r="P22">
-        <v>0.02251552750188864</v>
+        <v>0.01794267551419991</v>
       </c>
       <c r="Q22">
-        <v>17.31789300594</v>
+        <v>31.61934047054222</v>
       </c>
       <c r="R22">
-        <v>155.86103705346</v>
+        <v>284.57406423488</v>
       </c>
       <c r="S22">
-        <v>0.003405605143622963</v>
+        <v>0.005831396340997131</v>
       </c>
       <c r="T22">
-        <v>0.003979231985111332</v>
+        <v>0.00634727942601533</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>8.176158000000001</v>
+        <v>22.93880666666666</v>
       </c>
       <c r="H23">
-        <v>24.528474</v>
+        <v>68.81641999999999</v>
       </c>
       <c r="I23">
-        <v>0.1755799162175431</v>
+        <v>0.3520882424674529</v>
       </c>
       <c r="J23">
-        <v>0.1767327896171896</v>
+        <v>0.3537532304472688</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>54.20365200000001</v>
       </c>
       <c r="O23">
-        <v>0.1654554101491777</v>
+        <v>0.2170932623988173</v>
       </c>
       <c r="P23">
-        <v>0.1920629712066653</v>
+        <v>0.2351865659654651</v>
       </c>
       <c r="Q23">
-        <v>147.725874309672</v>
+        <v>414.45569795176</v>
       </c>
       <c r="R23">
-        <v>1329.532868787048</v>
+        <v>3730.10128156584</v>
       </c>
       <c r="S23">
-        <v>0.02905064705173185</v>
+        <v>0.07643598520952515</v>
       </c>
       <c r="T23">
-        <v>0.03394382468351993</v>
+        <v>0.08319800746808298</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>8.176158000000001</v>
+        <v>22.93880666666666</v>
       </c>
       <c r="H24">
-        <v>24.528474</v>
+        <v>68.81641999999999</v>
       </c>
       <c r="I24">
-        <v>0.1755799162175431</v>
+        <v>0.3520882424674529</v>
       </c>
       <c r="J24">
-        <v>0.1767327896171896</v>
+        <v>0.3537532304472688</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>21.713181</v>
+        <v>17.58286933333333</v>
       </c>
       <c r="N24">
-        <v>65.139543</v>
+        <v>52.748608</v>
       </c>
       <c r="O24">
-        <v>0.198836967737801</v>
+        <v>0.2112656061941426</v>
       </c>
       <c r="P24">
-        <v>0.2308127535691568</v>
+        <v>0.22887321273073</v>
       </c>
       <c r="Q24">
-        <v>177.530398538598</v>
+        <v>403.3300402825955</v>
       </c>
       <c r="R24">
-        <v>1597.773586847382</v>
+        <v>3629.970362543359</v>
       </c>
       <c r="S24">
-        <v>0.03491177813635343</v>
+        <v>0.0743841359787167</v>
       </c>
       <c r="T24">
-        <v>0.04079218181750203</v>
+        <v>0.08096463836634071</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>8.176158000000001</v>
+        <v>22.93880666666666</v>
       </c>
       <c r="H25">
-        <v>24.528474</v>
+        <v>68.81641999999999</v>
       </c>
       <c r="I25">
-        <v>0.1755799162175431</v>
+        <v>0.3520882424674529</v>
       </c>
       <c r="J25">
-        <v>0.1767327896171896</v>
+        <v>0.3537532304472688</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>45.38465100000001</v>
+        <v>19.2082395</v>
       </c>
       <c r="N25">
-        <v>90.76930200000001</v>
+        <v>38.416479</v>
       </c>
       <c r="O25">
-        <v>0.4156068328578093</v>
+        <v>0.2307951156866419</v>
       </c>
       <c r="P25">
-        <v>0.3216281780510861</v>
+        <v>0.1666869194070983</v>
       </c>
       <c r="Q25">
-        <v>371.0720773508581</v>
+        <v>440.61409229753</v>
       </c>
       <c r="R25">
-        <v>2226.432464105148</v>
+        <v>2643.68455378518</v>
       </c>
       <c r="S25">
-        <v>0.07297221289261259</v>
+        <v>0.08126024665218222</v>
       </c>
       <c r="T25">
-        <v>0.0568422451264626</v>
+        <v>0.05896603621356458</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>8.176158000000001</v>
+        <v>22.93880666666666</v>
       </c>
       <c r="H26">
-        <v>24.528474</v>
+        <v>68.81641999999999</v>
       </c>
       <c r="I26">
-        <v>0.1755799162175431</v>
+        <v>0.3520882424674529</v>
       </c>
       <c r="J26">
-        <v>0.1767327896171896</v>
+        <v>0.3537532304472688</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>21.91711333333333</v>
+        <v>26.988955</v>
       </c>
       <c r="N26">
-        <v>65.75134</v>
+        <v>80.966865</v>
       </c>
       <c r="O26">
-        <v>0.2007044641117176</v>
+        <v>0.3242837008298742</v>
       </c>
       <c r="P26">
-        <v>0.2329805696712033</v>
+        <v>0.3513106263825066</v>
       </c>
       <c r="Q26">
-        <v>179.19778151724</v>
+        <v>619.0944208803667</v>
       </c>
       <c r="R26">
-        <v>1612.78003365516</v>
+        <v>5571.849787923299</v>
       </c>
       <c r="S26">
-        <v>0.03523967299322226</v>
+        <v>0.1141764782860317</v>
       </c>
       <c r="T26">
-        <v>0.04117530600459376</v>
+        <v>0.1242772689732652</v>
       </c>
     </row>
   </sheetData>
